--- a/data/trans_camb/P42C_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R2-Dificultad-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.633640732603113</v>
+        <v>7.403413687544023</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.957265109237771</v>
+        <v>2.821039503834216</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.7499538427564</v>
+        <v>14.01007547712329</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.89559557119478</v>
+        <v>10.79262613335727</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.08988509800888442</v>
+        <v>0.08706920798997078</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03509898825813732</v>
+        <v>0.03462739135567553</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1718241605216299</v>
+        <v>0.1751231678119985</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1345943594829934</v>
+        <v>0.1334930941630318</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>6.780295471443221</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.841895649948293</v>
+        <v>6.841895649948304</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.835026153821936</v>
+        <v>2.4898372397579</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.698780223178533</v>
+        <v>2.398387912145513</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.81014269518934</v>
+        <v>10.89238685107711</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.65432996309716</v>
+        <v>10.94510092932568</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.08763294527540542</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.08842910601716454</v>
+        <v>0.08842910601716468</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.03650885078993778</v>
+        <v>0.03177379305160402</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.0339010101189672</v>
+        <v>0.02960182391422045</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.14323612840999</v>
+        <v>0.1454711773604753</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.141095254400847</v>
+        <v>0.1456440401396845</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>8.009398149207881</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.23487228511665</v>
+        <v>1.234872285116662</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.28661367687515</v>
+        <v>3.532240453738981</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.287448319892233</v>
+        <v>-3.59510342416459</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.5067273537609</v>
+        <v>12.67786699979299</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.990293195942946</v>
+        <v>5.375892464827206</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>0.1094438678770907</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.01687382705912226</v>
+        <v>0.01687382705912242</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04266449638592779</v>
+        <v>0.04632564711373852</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04391255678004722</v>
+        <v>-0.04792520228399264</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1761683777050216</v>
+        <v>0.178983274033604</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.08392519278167275</v>
+        <v>0.07483928692272566</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.885442536383356</v>
+        <v>-2.907021151964591</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.13136383296037</v>
+        <v>-9.987755210903829</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.80134866112809</v>
+        <v>12.85461940573764</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.871951779109471</v>
+        <v>2.78908082349327</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.028448271918648</v>
+        <v>-0.04250506446228572</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1534246436642411</v>
+        <v>-0.1515352844573041</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2207393288178313</v>
+        <v>0.2200581807418581</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.04925812247353874</v>
+        <v>0.04833353215649367</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>8.507364422132413</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-0.3972481208559198</v>
+        <v>-0.3972481208559309</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.328044478209284</v>
+        <v>6.391367820171348</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.914429009814689</v>
+        <v>-2.791907077401061</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.68920634073098</v>
+        <v>10.84142649999522</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.703986844309547</v>
+        <v>2.016563511695234</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>0.1118711950433634</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.005223782572810361</v>
+        <v>-0.005223782572810507</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.08183807627456817</v>
+        <v>0.08265481286435539</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.03743180085232813</v>
+        <v>-0.03639655608448906</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1428491322177424</v>
+        <v>0.1451031463258478</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.02294273260578036</v>
+        <v>0.02669297938827431</v>
       </c>
     </row>
     <row r="34">
